--- a/9 ML Sklearn/1_linearRegression.xlsx
+++ b/9 ML Sklearn/1_linearRegression.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzz coding\jcds_okt_bsd\ML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzz coding\Python_DataScience_Basic\9 ML Sklearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="simple_linreg" sheetId="1" r:id="rId1"/>
+    <sheet name="metrics" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
   <si>
     <t>mesinMobil x</t>
   </si>
@@ -47,9 +48,6 @@
     <t>a / c / ttkpotY</t>
   </si>
   <si>
-    <t>y = mx + c = 0.017x - 10</t>
-  </si>
-  <si>
     <t>y bestfitline</t>
   </si>
   <si>
@@ -65,17 +63,104 @@
     <t>intercept(y; x)</t>
   </si>
   <si>
-    <t>0,017 * A - 10</t>
-  </si>
-  <si>
-    <t>Beraapa harga terbaik mobil 100000 cc?</t>
+    <t>rumus linear regression</t>
+  </si>
+  <si>
+    <t>rumus correlation Pearson</t>
+  </si>
+  <si>
+    <t>corr</t>
+  </si>
+  <si>
+    <t>( (5 * E7) - (A7 * B7) ) / SQRT(ABS((5 * C7) - (A7 ^ 2)) * ABS( (5 * D7) - (B7 ^ 2) ))</t>
+  </si>
+  <si>
+    <t>correl(x; y)</t>
+  </si>
+  <si>
+    <t>mx + c = 0.017x - 10</t>
+  </si>
+  <si>
+    <t>Berapa harga terbaik mobil dg cc:</t>
+  </si>
+  <si>
+    <t>1000cc</t>
+  </si>
+  <si>
+    <t>1001cc</t>
+  </si>
+  <si>
+    <t>*arti: naik 1 cc, harga naik 0,017</t>
+  </si>
+  <si>
+    <t>maxError</t>
+  </si>
+  <si>
+    <t>selisih y &amp; yBest</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>MSE</t>
+  </si>
+  <si>
+    <t>mean absolute error</t>
+  </si>
+  <si>
+    <t>mean squared error</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>MAE is the easiest to understand, because it's the average error.</t>
+  </si>
+  <si>
+    <t>MSE is more popular than MAE, because MSE "punishes" larger errors, which tends to be useful in the real world.</t>
+  </si>
+  <si>
+    <t>RMSE is even more popular than MSE, because RMSE is interpretable in the "y" units.</t>
+  </si>
+  <si>
+    <t>MAE, MSE, RMSE are loss functions, because we want to minimize them.</t>
+  </si>
+  <si>
+    <t>square root of MSE</t>
+  </si>
+  <si>
+    <t>R2 Score</t>
+  </si>
+  <si>
+    <t>average y</t>
+  </si>
+  <si>
+    <t>selisih y &amp; yAVG</t>
+  </si>
+  <si>
+    <t>y-yAVG ^ 2</t>
+  </si>
+  <si>
+    <t>y-yBest ^ 2</t>
+  </si>
+  <si>
+    <t>coef of determination</t>
+  </si>
+  <si>
+    <t>MedAE</t>
+  </si>
+  <si>
+    <t>median absolute error</t>
+  </si>
+  <si>
+    <t>It represents the proportion of variance (of y) that has been explained by the independent variables in the model. It provides an indication of goodness of fit and therefore a measure of how well unseen samples are likely to be predicted by the model, through the proportion of explained variance.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,8 +168,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212529"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,6 +244,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -128,12 +269,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -219,7 +369,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>simple_linreg!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -243,7 +393,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$6</c:f>
+              <c:f>simple_linreg!$B$2:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -289,7 +439,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$6</c:f>
+              <c:f>simple_linreg!$A$2:$A$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -313,7 +463,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$2:$G$6</c:f>
+              <c:f>simple_linreg!$G$2:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1115,15 +1265,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>205410</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>92764</xdr:rowOff>
+      <xdr:colOff>251793</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>86138</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>458444</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>89037</xdr:rowOff>
+      <xdr:colOff>504827</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>82411</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1146,7 +1296,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="205410" y="1391477"/>
+          <a:off x="251793" y="1755912"/>
           <a:ext cx="2181225" cy="923925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1158,16 +1308,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>725557</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>86143</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>533401</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>132526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>573157</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>46387</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>92769</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1184,6 +1334,226 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>172278</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>119270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>475666</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>165652</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="28390" b="33051"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="172278" y="3087757"/>
+          <a:ext cx="2993579" cy="602973"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>8608</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>46893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>35171</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>5862</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="46080" t="31411" r="27890" b="57236"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6936946" y="410308"/>
+          <a:ext cx="2054655" cy="504092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>545122</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>11722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>185225</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>5993</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="45607" t="48071" r="26464" b="39842"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7731368" y="1283676"/>
+          <a:ext cx="2215663" cy="539394"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>580295</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>5862</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>78547</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>52755</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="48718" t="45998" r="30361" b="43538"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7766541" y="2731477"/>
+          <a:ext cx="2104292" cy="592016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>146537</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>52754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>143979</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="43024" t="44720" r="24510" b="47826"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7145214" y="2778369"/>
+          <a:ext cx="3086473" cy="398584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1452,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1464,32 +1834,30 @@
     <col min="2" max="2" width="15.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.109375" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="6" t="s">
         <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1000</v>
       </c>
@@ -1513,7 +1881,7 @@
         <v>6.9999999999999929</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2000</v>
       </c>
@@ -1537,10 +1905,10 @@
         <v>23.999999999999993</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3000</v>
       </c>
@@ -1563,12 +1931,15 @@
         <f t="shared" si="3"/>
         <v>41</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4">
         <f xml:space="preserve"> G9 * 1000 - 10</f>
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4000</v>
       </c>
@@ -1591,12 +1962,15 @@
         <f t="shared" si="3"/>
         <v>57.999999999999993</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5">
         <f xml:space="preserve"> G9 * 1001 - 10</f>
         <v>7.0169999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5000</v>
       </c>
@@ -1619,8 +1993,11 @@
         <f t="shared" si="3"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f>SUM(A2:A6)</f>
         <v>15000</v>
@@ -1641,56 +2018,505 @@
         <f t="shared" si="4"/>
         <v>785000</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="D9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="10">
         <f xml:space="preserve"> ( (5 * E7) - ( A7 * B7 ) ) / ( (5 * C7 ) - ( A7 ^ 2 ) )</f>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="I9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G10">
+      <c r="I9" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G10" s="10">
         <f>SLOPE(B2:B6, A2:A6)</f>
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="I10" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
+      <c r="I10" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="10">
         <f xml:space="preserve"> ( (B7 * C7) - (A7 * E7) )  /  (  (5 * C7) - (A7 ^ 2))</f>
         <v>-10</v>
       </c>
-      <c r="I11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="G12">
+      <c r="I11" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="G12" s="10">
         <f>INTERCEPT(B2:B6, A2:A6)</f>
         <v>-10.000000000000007</v>
       </c>
-      <c r="I12" t="s">
-        <v>12</v>
+      <c r="I12" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="9"/>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" s="10">
+        <f>( (5 * E7) - (A7 * B7) ) / SQRT(ABS((5 * C7) - (A7 ^ 2)) * ABS( (5 * D7) - (B7 ^ 2) ))</f>
+        <v>0.98644005041562111</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G18" s="10">
+        <f>CORREL(A2:A6, B2:B6)</f>
+        <v>0.98644005041562099</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="6" max="6" width="3" customWidth="1"/>
+    <col min="7" max="7" width="10.44140625" customWidth="1"/>
+    <col min="8" max="8" width="7.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" customWidth="1"/>
+    <col min="11" max="11" width="3.77734375" customWidth="1"/>
+    <col min="13" max="13" width="11.77734375" customWidth="1"/>
+    <col min="16" max="16" width="2.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="8">
+        <f>MAX(I2:I6)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="4">
+        <f>A2^2</f>
+        <v>1000000</v>
+      </c>
+      <c r="D2" s="4">
+        <f>B2^2</f>
+        <v>100</v>
+      </c>
+      <c r="E2" s="4">
+        <f>A2*B2</f>
+        <v>10000</v>
+      </c>
+      <c r="G2" s="3">
+        <f>$G$9*A2+$G$12</f>
+        <v>6.9999999999999929</v>
+      </c>
+      <c r="I2" s="2">
+        <f>ABS(B2-G2)</f>
+        <v>3.0000000000000071</v>
+      </c>
+      <c r="J2" s="2">
+        <f>I2^2</f>
+        <v>9.0000000000000426</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="8">
+        <f>(1/5) * SUM(I2:I6)</f>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="N2" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="2">
+        <v>25</v>
+      </c>
+      <c r="C3" s="4">
+        <f t="shared" ref="C3:D6" si="0">A3^2</f>
+        <v>4000000</v>
+      </c>
+      <c r="D3" s="4">
+        <f t="shared" si="0"/>
+        <v>625</v>
+      </c>
+      <c r="E3" s="4">
+        <f t="shared" ref="E3:E6" si="1">A3*B3</f>
+        <v>50000</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G6" si="2">$G$9*A3+$G$12</f>
+        <v>23.999999999999993</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I6" si="3">ABS(B3-G3)</f>
+        <v>1.0000000000000071</v>
+      </c>
+      <c r="J3" s="2">
+        <f t="shared" ref="J3:J6" si="4">I3^2</f>
+        <v>1.0000000000000142</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3000</v>
+      </c>
+      <c r="B4" s="2">
+        <v>35</v>
+      </c>
+      <c r="C4" s="4">
+        <f t="shared" si="0"/>
+        <v>9000000</v>
+      </c>
+      <c r="D4" s="4">
+        <f t="shared" si="0"/>
+        <v>1225</v>
+      </c>
+      <c r="E4" s="4">
+        <f t="shared" si="1"/>
+        <v>105000</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="J4" s="2">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>55</v>
+      </c>
+      <c r="C5" s="4">
+        <f t="shared" si="0"/>
+        <v>16000000</v>
+      </c>
+      <c r="D5" s="4">
+        <f t="shared" si="0"/>
+        <v>3025</v>
+      </c>
+      <c r="E5" s="4">
+        <f t="shared" si="1"/>
+        <v>220000</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="2"/>
+        <v>57.999999999999993</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="3"/>
+        <v>2.9999999999999929</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" si="4"/>
+        <v>8.9999999999999574</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B6" s="2">
+        <v>80</v>
+      </c>
+      <c r="C6" s="4">
+        <f t="shared" si="0"/>
+        <v>25000000</v>
+      </c>
+      <c r="D6" s="4">
+        <f t="shared" si="0"/>
+        <v>6400</v>
+      </c>
+      <c r="E6" s="4">
+        <f t="shared" si="1"/>
+        <v>400000</v>
+      </c>
+      <c r="G6" s="3">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <f>SUM(A2:A6)</f>
+        <v>15000</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" ref="B7:E7" si="5">SUM(B2:B6)</f>
+        <v>205</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="5"/>
+        <v>55000000</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="5"/>
+        <v>11375</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="5"/>
+        <v>785000</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M7" s="8">
+        <f>(1/5)*SUM(J2:J6)</f>
+        <v>16.000000000000004</v>
+      </c>
+      <c r="N7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I8" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="12">
+        <f>AVERAGE(B2:B6)</f>
+        <v>41</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="10">
+        <f xml:space="preserve"> ( (5 * E7) - ( A7 * B7 ) ) / ( (5 * C7 ) - ( A7 ^ 2 ) )</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I9" s="11">
+        <f>B2-$B$9</f>
+        <v>-31</v>
+      </c>
+      <c r="J9" s="11">
+        <f>I9^2</f>
+        <v>961</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G10" s="10">
+        <f>SLOPE(B2:B6, A2:A6)</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="I10" s="11">
+        <f t="shared" ref="I10:I13" si="6">B3-$B$9</f>
+        <v>-16</v>
+      </c>
+      <c r="J10" s="11">
+        <f t="shared" ref="J10:J13" si="7">I10^2</f>
+        <v>256</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="D11" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="10">
+        <f xml:space="preserve"> ( (B7 * C7) - (A7 * E7) )  /  (  (5 * C7) - (A7 ^ 2))</f>
+        <v>-10</v>
+      </c>
+      <c r="I11" s="11">
+        <f t="shared" si="6"/>
+        <v>-6</v>
+      </c>
+      <c r="J11" s="11">
+        <f t="shared" si="7"/>
+        <v>36</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M11" s="8">
+        <f>SQRT(M7)</f>
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="G12" s="10">
+        <f>INTERCEPT(B2:B6, A2:A6)</f>
+        <v>-10.000000000000007</v>
+      </c>
+      <c r="I12" s="11">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="J12" s="11">
+        <f t="shared" si="7"/>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="I13" s="11">
+        <f t="shared" si="6"/>
+        <v>39</v>
+      </c>
+      <c r="J13" s="11">
+        <f t="shared" si="7"/>
+        <v>1521</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="L15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="8">
+        <f>MEDIAN(I2:I6)</f>
+        <v>3.0000000000000071</v>
+      </c>
+      <c r="N15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.35">
+      <c r="R16" s="13"/>
+    </row>
+    <row r="19" spans="12:17" ht="15" x14ac:dyDescent="0.35">
+      <c r="L19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M19" s="8">
+        <f xml:space="preserve"> 1 - ( SUM(J2:J6) / SUM(J9:J13) )</f>
+        <v>0.97306397306397308</v>
+      </c>
+      <c r="N19" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/9 ML Sklearn/1_linearRegression.xlsx
+++ b/9 ML Sklearn/1_linearRegression.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="simple_linreg" sheetId="1" r:id="rId1"/>
     <sheet name="metrics" sheetId="2" r:id="rId2"/>
+    <sheet name="metrics_OK" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
   <si>
     <t>mesinMobil x</t>
   </si>
@@ -154,13 +155,178 @@
   </si>
   <si>
     <t>It represents the proportion of variance (of y) that has been explained by the independent variables in the model. It provides an indication of goodness of fit and therefore a measure of how well unseen samples are likely to be predicted by the model, through the proportion of explained variance.</t>
+  </si>
+  <si>
+    <t>MSLE</t>
+  </si>
+  <si>
+    <t>(elog(1+y) - elog(1+yBest)) ^ 2</t>
+  </si>
+  <si>
+    <t>elog(1+y)</t>
+  </si>
+  <si>
+    <t>elog(1+yBest)</t>
+  </si>
+  <si>
+    <t>RMSLE</t>
+  </si>
+  <si>
+    <t>mean squared logarithmic error</t>
+  </si>
+  <si>
+    <t>MAPE</t>
+  </si>
+  <si>
+    <t>At = harga aktual</t>
+  </si>
+  <si>
+    <t>Ft = harga prediksi</t>
+  </si>
+  <si>
+    <t>MSPE</t>
+  </si>
+  <si>
+    <t>mean absolute percentage errror</t>
+  </si>
+  <si>
+    <t>%error = |(y-y')/y |</t>
+  </si>
+  <si>
+    <t>mean squared percentage error</t>
+  </si>
+  <si>
+    <t>%error ^ 2</t>
+  </si>
+  <si>
+    <t>mesin x</t>
+  </si>
+  <si>
+    <t>harga y</t>
+  </si>
+  <si>
+    <t>y' = mx+c</t>
+  </si>
+  <si>
+    <t>selisih |y-y'|</t>
+  </si>
+  <si>
+    <t>selisih^2</t>
+  </si>
+  <si>
+    <t>selisih |y-avgy|</t>
+  </si>
+  <si>
+    <t>selisih ^ 2</t>
+  </si>
+  <si>
+    <t>elog(1 + y')</t>
+  </si>
+  <si>
+    <t>(elog(1+y) - elog(1+y')) ^ 2</t>
+  </si>
+  <si>
+    <t>%error = |y-y' / y|</t>
+  </si>
+  <si>
+    <t>m / slope/ gradient / b</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SLOPE(B2:B6; A2:A6)</t>
+  </si>
+  <si>
+    <t>c / intercept / a</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     INTERCEPT(B2:B6; A2:A6)</t>
+  </si>
+  <si>
+    <t>r / correlation / co-relation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    CORREL(A2:A6; B2:B6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    (5*C7-A7*B7)/SQRT(ABS(5*D7-A7^2) * ABS(5 * E7 - B7 ^ 2))</t>
+  </si>
+  <si>
+    <t>Evaluation Metrics Linear Regression</t>
+  </si>
+  <si>
+    <t>max error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   MAX(G2:G6)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1/5*(SUM(G2:G6))</t>
+  </si>
+  <si>
+    <t>Mean Absolute Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1/5 * SUM(H2:H6)</t>
+  </si>
+  <si>
+    <t>Mean Squared Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    SQRT(MSE)</t>
+  </si>
+  <si>
+    <t>Square Root MSE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MEDIAN(G2:G6)</t>
+  </si>
+  <si>
+    <t>Median Absolute Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1/5 * SUM(K2:K6)</t>
+  </si>
+  <si>
+    <t>Mean Squared Logarithmic Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   SQRT(MSLE)</t>
+  </si>
+  <si>
+    <t>Root MSLE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1/5 * SUM(N2:N6)</t>
+  </si>
+  <si>
+    <t>Mean Absolute Percentage Error</t>
+  </si>
+  <si>
+    <t>At = y aktual</t>
+  </si>
+  <si>
+    <t>Ft = y prediksi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1/5 * SUM(O2:O6)</t>
+  </si>
+  <si>
+    <t>Mean Squared Percentage Error</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 - ( SUM(H2:H6) / SUM(J2:J6) )</t>
+  </si>
+  <si>
+    <t>Coef of determination</t>
+  </si>
+  <si>
+    <t>1 - (MSE Model / MSE Baseline)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -212,8 +378,17 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +431,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -269,7 +480,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -284,6 +495,18 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1386,14 +1609,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>8608</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>46893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>35171</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>35170</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>5862</xdr:rowOff>
     </xdr:to>
@@ -1429,14 +1652,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>545122</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>11722</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>185225</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>185275</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>5993</xdr:rowOff>
     </xdr:to>
@@ -1472,16 +1695,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>580295</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>5862</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>17587</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>17585</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>78547</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>52755</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>93786</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>64478</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1503,7 +1726,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7766541" y="2731477"/>
+          <a:off x="11107618" y="4583723"/>
           <a:ext cx="2104292" cy="592016"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1515,14 +1738,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>146537</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>562706</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>52754</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>143979</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>255399</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
@@ -1546,8 +1769,552 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7145214" y="2778369"/>
+          <a:off x="11048998" y="2778369"/>
           <a:ext cx="3086473" cy="398584"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>578067</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>35171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>178243</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:srcRect l="26079" t="41610" r="50682" b="48395"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11064359" y="3499340"/>
+          <a:ext cx="3009196" cy="474784"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>589721</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>66262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>593214</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>46382</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11078817" y="4340088"/>
+          <a:ext cx="2006228" cy="722242"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>192157</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>72888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>26505</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>1061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12404035" y="6016488"/>
+          <a:ext cx="1861931" cy="670295"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>11724</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>64477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>468924</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2450124" y="1344637"/>
+          <a:ext cx="1676400" cy="714780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>58616</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53208</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>463062</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>180940</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="28390" b="33051"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2497016" y="2064888"/>
+          <a:ext cx="2438986" cy="493493"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>140678</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>11722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>193338</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="46080" t="31411" r="27890" b="57236"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1359878" y="3615982"/>
+          <a:ext cx="2221522" cy="547376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>193430</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>580293</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>23579</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="45607" t="48071" r="26464" b="39842"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1412630" y="4403188"/>
+          <a:ext cx="2215663" cy="542911"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>416170</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>181707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>249489</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>35168</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="43024" t="44720" r="24510" b="47826"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1635370" y="5668107"/>
+          <a:ext cx="3087059" cy="402101"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>175846</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>169984</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>541488</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>99645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:srcRect l="26079" t="41610" r="50682" b="48395"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2004646" y="6319324"/>
+          <a:ext cx="3009782" cy="478301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>205154</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>11722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>480646</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>58615</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="48718" t="45998" r="30361" b="43538"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2033954" y="9270022"/>
+          <a:ext cx="2104292" cy="595533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>222739</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>169986</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>148181</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2051539" y="7599486"/>
+          <a:ext cx="1453661" cy="526835"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="FFFF00"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>392725</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>111371</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>17586</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>89566</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2221525" y="8411309"/>
+          <a:ext cx="1453661" cy="523318"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1824,8 +2591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:G12"/>
+    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2114,10 +2881,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R19"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView topLeftCell="K19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2128,13 +2895,16 @@
     <col min="7" max="7" width="10.44140625" customWidth="1"/>
     <col min="8" max="8" width="7.88671875" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" customWidth="1"/>
-    <col min="11" max="11" width="3.77734375" customWidth="1"/>
-    <col min="13" max="13" width="11.77734375" customWidth="1"/>
-    <col min="16" max="16" width="2.77734375" customWidth="1"/>
+    <col min="10" max="12" width="12.6640625" customWidth="1"/>
+    <col min="13" max="13" width="25.5546875" customWidth="1"/>
+    <col min="14" max="14" width="16.33203125" customWidth="1"/>
+    <col min="15" max="15" width="11.6640625" customWidth="1"/>
+    <col min="16" max="16" width="4.6640625" customWidth="1"/>
+    <col min="18" max="18" width="11.77734375" customWidth="1"/>
+    <col min="21" max="21" width="2.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2159,15 +2929,30 @@
       <c r="J1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="K1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="M1" s="8">
+      <c r="R1" s="8">
         <f>MAX(I2:I6)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1000</v>
       </c>
@@ -2198,21 +2983,41 @@
         <f>I2^2</f>
         <v>9.0000000000000426</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="K2" s="3">
+        <f>LN(1+B2)</f>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="L2" s="3">
+        <f>LN(1+G2)</f>
+        <v>2.0794415416798349</v>
+      </c>
+      <c r="M2" s="3">
+        <f>(K2-L2) ^ 2</f>
+        <v>0.1014127788633167</v>
+      </c>
+      <c r="N2" s="1">
+        <f>ABS((B2-G2)/B2)</f>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="O2" s="1">
+        <f>N2^2</f>
+        <v>9.0000000000000427E-2</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="8">
+      <c r="R2" s="8">
         <f>(1/5) * SUM(I2:I6)</f>
         <v>3.6000000000000014</v>
       </c>
-      <c r="N2" t="s">
+      <c r="S2" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="V2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2000</v>
       </c>
@@ -2243,8 +3048,28 @@
         <f t="shared" ref="J3:J6" si="4">I3^2</f>
         <v>1.0000000000000142</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K3" s="3">
+        <f t="shared" ref="K3:K6" si="5">LN(1+B3)</f>
+        <v>3.2580965380214821</v>
+      </c>
+      <c r="L3" s="3">
+        <f t="shared" ref="L3:L6" si="6">LN(1+G3)</f>
+        <v>3.2188758248682006</v>
+      </c>
+      <c r="M3" s="3">
+        <f t="shared" ref="M3:M6" si="7">(K3-L3) ^ 2</f>
+        <v>1.5382643402519942E-3</v>
+      </c>
+      <c r="N3" s="1">
+        <f t="shared" ref="N3:N6" si="8">ABS((B3-G3)/B3)</f>
+        <v>4.0000000000000285E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <f t="shared" ref="O3:O6" si="9">N3^2</f>
+        <v>1.6000000000000228E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3000</v>
       </c>
@@ -2275,8 +3100,28 @@
         <f t="shared" si="4"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K4" s="3">
+        <f t="shared" si="5"/>
+        <v>3.5835189384561099</v>
+      </c>
+      <c r="L4" s="3">
+        <f t="shared" si="6"/>
+        <v>3.7376696182833684</v>
+      </c>
+      <c r="M4" s="3">
+        <f t="shared" si="7"/>
+        <v>2.3762432091205959E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <f t="shared" si="8"/>
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="O4" s="1">
+        <f t="shared" si="9"/>
+        <v>2.9387755102040818E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4000</v>
       </c>
@@ -2307,8 +3152,28 @@
         <f t="shared" si="4"/>
         <v>8.9999999999999574</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K5" s="3">
+        <f t="shared" si="5"/>
+        <v>4.0253516907351496</v>
+      </c>
+      <c r="L5" s="3">
+        <f t="shared" si="6"/>
+        <v>4.0775374439057197</v>
+      </c>
+      <c r="M5" s="3">
+        <f t="shared" si="7"/>
+        <v>2.7233528339796632E-3</v>
+      </c>
+      <c r="N5" s="1">
+        <f t="shared" si="8"/>
+        <v>5.4545454545454418E-2</v>
+      </c>
+      <c r="O5" s="1">
+        <f t="shared" si="9"/>
+        <v>2.9752066115702339E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5000</v>
       </c>
@@ -2339,26 +3204,46 @@
         <f t="shared" si="4"/>
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K6" s="3">
+        <f t="shared" si="5"/>
+        <v>4.3944491546724391</v>
+      </c>
+      <c r="L6" s="3">
+        <f t="shared" si="6"/>
+        <v>4.3307333402863311</v>
+      </c>
+      <c r="M6" s="3">
+        <f t="shared" si="7"/>
+        <v>4.0597050028849764E-3</v>
+      </c>
+      <c r="N6" s="1">
+        <f t="shared" si="8"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O6" s="1">
+        <f t="shared" si="9"/>
+        <v>3.90625E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f>SUM(A2:A6)</f>
         <v>15000</v>
       </c>
       <c r="B7" s="1">
-        <f t="shared" ref="B7:E7" si="5">SUM(B2:B6)</f>
+        <f t="shared" ref="B7:E7" si="10">SUM(B2:B6)</f>
         <v>205</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>55000000</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>11375</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>785000</v>
       </c>
       <c r="G7" t="s">
@@ -2367,29 +3252,39 @@
       <c r="I7" s="7"/>
       <c r="J7" s="7"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="8" t="s">
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="M7" s="8">
+      <c r="R7" s="8">
         <f>(1/5)*SUM(J2:J6)</f>
         <v>16.000000000000004</v>
       </c>
-      <c r="N7" t="s">
+      <c r="S7" t="s">
         <v>27</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="V7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="I8" s="11" t="s">
         <v>36</v>
       </c>
       <c r="J8" s="11" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -2412,22 +3307,32 @@
         <f>I9^2</f>
         <v>961</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="G10" s="10">
         <f>SLOPE(B2:B6, A2:A6)</f>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="I10" s="11">
-        <f t="shared" ref="I10:I13" si="6">B3-$B$9</f>
+        <f t="shared" ref="I10:I13" si="11">B3-$B$9</f>
         <v>-16</v>
       </c>
       <c r="J10" s="11">
-        <f t="shared" ref="J10:J13" si="7">I10^2</f>
+        <f t="shared" ref="J10:J13" si="12">I10^2</f>
         <v>256</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
@@ -2436,81 +3341,166 @@
         <v>-10</v>
       </c>
       <c r="I11" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>-6</v>
       </c>
       <c r="J11" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>36</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+      <c r="O11" s="15"/>
+      <c r="Q11" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="M11" s="8">
-        <f>SQRT(M7)</f>
+      <c r="R11" s="8">
+        <f>SQRT(R7)</f>
         <v>4</v>
       </c>
-      <c r="N11" t="s">
+      <c r="S11" t="s">
         <v>33</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="V11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="G12" s="10">
         <f>INTERCEPT(B2:B6, A2:A6)</f>
         <v>-10.000000000000007</v>
       </c>
       <c r="I12" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="J12" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>196</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="I13" s="11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>39</v>
       </c>
       <c r="J13" s="11">
-        <f t="shared" si="7"/>
+        <f t="shared" si="12"/>
         <v>1521</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="15"/>
+      <c r="N13" s="15"/>
+      <c r="O13" s="15"/>
+      <c r="V13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="L15" s="8" t="s">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="Q15" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M15" s="8">
+      <c r="R15" s="8">
         <f>MEDIAN(I2:I6)</f>
         <v>3.0000000000000071</v>
       </c>
-      <c r="N15" t="s">
+      <c r="S15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:18" ht="15" x14ac:dyDescent="0.35">
-      <c r="R16" s="13"/>
-    </row>
-    <row r="19" spans="12:17" ht="15" x14ac:dyDescent="0.35">
-      <c r="L19" s="8" t="s">
+    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.35">
+      <c r="W16" s="13"/>
+    </row>
+    <row r="19" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="R19" s="8">
+        <f>1/5 * SUM(M2:M6)</f>
+        <v>2.6699306626327864E-2</v>
+      </c>
+      <c r="S19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="R24" s="8">
+        <f>SQRT(R19)</f>
+        <v>0.16339922468092638</v>
+      </c>
+    </row>
+    <row r="26" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q26" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="R26" s="8">
+        <f xml:space="preserve"> 1/5 * SUM(N2:N6)</f>
+        <v>0.12569480519480539</v>
+      </c>
+      <c r="S26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="T28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="T29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="17:20" x14ac:dyDescent="0.3">
+      <c r="Q32" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="R32" s="8">
+        <f>1/5 * SUM(O2:O6)</f>
+        <v>2.5573842342722298E-2</v>
+      </c>
+      <c r="S32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q33" s="16"/>
+      <c r="R33" s="17"/>
+    </row>
+    <row r="34" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q34" s="16"/>
+      <c r="R34" s="17"/>
+      <c r="T34" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="17:22" x14ac:dyDescent="0.3">
+      <c r="Q35" s="16"/>
+      <c r="R35" s="17"/>
+    </row>
+    <row r="37" spans="17:22" ht="15" x14ac:dyDescent="0.35">
+      <c r="Q37" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="M19" s="8">
+      <c r="R37" s="8">
         <f xml:space="preserve"> 1 - ( SUM(J2:J6) / SUM(J9:J13) )</f>
         <v>0.97306397306397308</v>
       </c>
-      <c r="N19" t="s">
+      <c r="S37" t="s">
         <v>39</v>
       </c>
-      <c r="Q19" s="13" t="s">
+      <c r="V37" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2519,4 +3509,667 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="11.88671875" customWidth="1"/>
+    <col min="9" max="9" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.109375" customWidth="1"/>
+    <col min="13" max="13" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.88671875" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="19">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="19">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <f>A2*B2</f>
+        <v>10000</v>
+      </c>
+      <c r="D2" s="2">
+        <f>A2^2</f>
+        <v>1000000</v>
+      </c>
+      <c r="E2" s="2">
+        <f>B2^2</f>
+        <v>100</v>
+      </c>
+      <c r="F2" s="1">
+        <f>$A$11*A2+$A$13</f>
+        <v>6.9999999999999929</v>
+      </c>
+      <c r="G2" s="3">
+        <f>ABS(B2:B6-F2:F6)</f>
+        <v>3.0000000000000071</v>
+      </c>
+      <c r="H2" s="3">
+        <f>G2^2</f>
+        <v>9.0000000000000426</v>
+      </c>
+      <c r="I2" s="14">
+        <f>ABS(B2 - AVERAGE($B$2:$B$6))</f>
+        <v>31</v>
+      </c>
+      <c r="J2" s="14">
+        <f>I2^2</f>
+        <v>961</v>
+      </c>
+      <c r="K2" s="1">
+        <f>LN(1+B2)</f>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="L2" s="1">
+        <f>LN(1+F2)</f>
+        <v>2.0794415416798349</v>
+      </c>
+      <c r="M2" s="1">
+        <f>(K2 - L2) ^ 2</f>
+        <v>0.1014127788633167</v>
+      </c>
+      <c r="N2" s="22">
+        <f>ABS((B2-F2)/B2)</f>
+        <v>0.30000000000000071</v>
+      </c>
+      <c r="O2" s="22">
+        <f>N2^2</f>
+        <v>9.0000000000000427E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="19">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="19">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C6" si="0">A3*B3</f>
+        <v>50000</v>
+      </c>
+      <c r="D3" s="2">
+        <f t="shared" ref="D3:E6" si="1">A3^2</f>
+        <v>4000000</v>
+      </c>
+      <c r="E3" s="2">
+        <f t="shared" si="1"/>
+        <v>625</v>
+      </c>
+      <c r="F3" s="1">
+        <f>$A$11*A3+$A$13</f>
+        <v>23.999999999999993</v>
+      </c>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3" si="2">ABS(B3:B7-F3:F7)</f>
+        <v>1.0000000000000071</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H6" si="3">G3^2</f>
+        <v>1.0000000000000142</v>
+      </c>
+      <c r="I3" s="14">
+        <f t="shared" ref="I3:I6" si="4">ABS(B3 - AVERAGE($B$2:$B$6))</f>
+        <v>16</v>
+      </c>
+      <c r="J3" s="14">
+        <f t="shared" ref="J3:J6" si="5">I3^2</f>
+        <v>256</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" ref="K3:K6" si="6">LN(1+B3)</f>
+        <v>3.2580965380214821</v>
+      </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L6" si="7">LN(1+F3)</f>
+        <v>3.2188758248682006</v>
+      </c>
+      <c r="M3" s="1">
+        <f t="shared" ref="M3:M6" si="8">(K3 - L3) ^ 2</f>
+        <v>1.5382643402519942E-3</v>
+      </c>
+      <c r="N3" s="22">
+        <f t="shared" ref="N3:N6" si="9">ABS((B3-F3)/B3)</f>
+        <v>4.0000000000000285E-2</v>
+      </c>
+      <c r="O3" s="22">
+        <f t="shared" ref="O3:O6" si="10">N3^2</f>
+        <v>1.6000000000000228E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="19">
+        <v>3000</v>
+      </c>
+      <c r="B4" s="19">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>105000</v>
+      </c>
+      <c r="D4" s="2">
+        <f t="shared" si="1"/>
+        <v>9000000</v>
+      </c>
+      <c r="E4" s="2">
+        <f t="shared" si="1"/>
+        <v>1225</v>
+      </c>
+      <c r="F4" s="1">
+        <f>$A$11*A4+$A$13</f>
+        <v>41</v>
+      </c>
+      <c r="G4" s="3">
+        <f>ABS(B4:B9-F4:F9)</f>
+        <v>6</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+      <c r="I4" s="14">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="J4" s="14">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="6"/>
+        <v>3.5835189384561099</v>
+      </c>
+      <c r="L4" s="1">
+        <f t="shared" si="7"/>
+        <v>3.7376696182833684</v>
+      </c>
+      <c r="M4" s="1">
+        <f t="shared" si="8"/>
+        <v>2.3762432091205959E-2</v>
+      </c>
+      <c r="N4" s="22">
+        <f t="shared" si="9"/>
+        <v>0.17142857142857143</v>
+      </c>
+      <c r="O4" s="22">
+        <f t="shared" si="10"/>
+        <v>2.9387755102040818E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="19">
+        <v>4000</v>
+      </c>
+      <c r="B5" s="19">
+        <v>55</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>220000</v>
+      </c>
+      <c r="D5" s="2">
+        <f t="shared" si="1"/>
+        <v>16000000</v>
+      </c>
+      <c r="E5" s="2">
+        <f t="shared" si="1"/>
+        <v>3025</v>
+      </c>
+      <c r="F5" s="1">
+        <f>$A$11*A5+$A$13</f>
+        <v>57.999999999999993</v>
+      </c>
+      <c r="G5" s="3">
+        <f>ABS(B5:B10-F5:F10)</f>
+        <v>2.9999999999999929</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="3"/>
+        <v>8.9999999999999574</v>
+      </c>
+      <c r="I5" s="14">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="J5" s="14">
+        <f t="shared" si="5"/>
+        <v>196</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="6"/>
+        <v>4.0253516907351496</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="7"/>
+        <v>4.0775374439057197</v>
+      </c>
+      <c r="M5" s="1">
+        <f t="shared" si="8"/>
+        <v>2.7233528339796632E-3</v>
+      </c>
+      <c r="N5" s="22">
+        <f t="shared" si="9"/>
+        <v>5.4545454545454418E-2</v>
+      </c>
+      <c r="O5" s="22">
+        <f t="shared" si="10"/>
+        <v>2.9752066115702339E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="19">
+        <v>5000</v>
+      </c>
+      <c r="B6" s="19">
+        <v>80</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>400000</v>
+      </c>
+      <c r="D6" s="2">
+        <f t="shared" si="1"/>
+        <v>25000000</v>
+      </c>
+      <c r="E6" s="2">
+        <f t="shared" si="1"/>
+        <v>6400</v>
+      </c>
+      <c r="F6" s="1">
+        <f>$A$11*A6+$A$13</f>
+        <v>75</v>
+      </c>
+      <c r="G6" s="3">
+        <f>ABS(B6:B11-F6:F11)</f>
+        <v>5</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="3"/>
+        <v>25</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="J6" s="14">
+        <f t="shared" si="5"/>
+        <v>1521</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="6"/>
+        <v>4.3944491546724391</v>
+      </c>
+      <c r="L6" s="1">
+        <f t="shared" si="7"/>
+        <v>4.3307333402863311</v>
+      </c>
+      <c r="M6" s="1">
+        <f t="shared" si="8"/>
+        <v>4.0597050028849764E-3</v>
+      </c>
+      <c r="N6" s="22">
+        <f t="shared" si="9"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="O6" s="22">
+        <f t="shared" si="10"/>
+        <v>3.90625E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="23">
+        <f>SUM(A2:A6)</f>
+        <v>15000</v>
+      </c>
+      <c r="B7" s="23">
+        <f t="shared" ref="B7:E7" si="11">SUM(B2:B6)</f>
+        <v>205</v>
+      </c>
+      <c r="C7" s="23">
+        <f t="shared" si="11"/>
+        <v>785000</v>
+      </c>
+      <c r="D7" s="23">
+        <f t="shared" si="11"/>
+        <v>55000000</v>
+      </c>
+      <c r="E7" s="23">
+        <f t="shared" si="11"/>
+        <v>11375</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="J8" s="15"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f>SLOPE(B2:B6, A2:A6)</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f>INTERCEPT(B2:B6, A2:A6)</f>
+        <v>-10.000000000000007</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f>CORREL(A2:A6, B2:B6)</f>
+        <v>0.98644005041562099</v>
+      </c>
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f>(5*C7-A7*B7)/SQRT(ABS(5*D7-A7^2) * ABS(5 * E7 - B7 ^ 2))</f>
+        <v>0.98644005041562111</v>
+      </c>
+      <c r="B16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20">
+        <f xml:space="preserve"> MAX(G2:G6)</f>
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="5.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22">
+        <f>1/5*(SUM(G2:G6))</f>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="D22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <f xml:space="preserve"> 1/5 * SUM(H2:H6)</f>
+        <v>16.000000000000004</v>
+      </c>
+      <c r="D26" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <f xml:space="preserve"> SQRT(C26)</f>
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="21" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="7.2" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <f>MEDIAN(G2:G6)</f>
+        <v>3.0000000000000071</v>
+      </c>
+      <c r="D34" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <f xml:space="preserve"> 1/5 * SUM(M2:M6)</f>
+        <v>2.6699306626327864E-2</v>
+      </c>
+      <c r="D38" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42">
+        <f>SQRT(C38)</f>
+        <v>0.16339922468092638</v>
+      </c>
+      <c r="D42" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="15"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45">
+        <f>1/5 * SUM(N2:N6)</f>
+        <v>0.12569480519480539</v>
+      </c>
+      <c r="D45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="15"/>
+      <c r="G47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="15"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C49">
+        <f xml:space="preserve"> 1/5 * SUM(O2:O6)</f>
+        <v>2.5573842342722298E-2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="15"/>
+      <c r="G51" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="15"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54">
+        <f xml:space="preserve"> 1 - (SUM(H2:H6) / SUM(J2:J6))</f>
+        <v>0.97306397306397308</v>
+      </c>
+      <c r="D54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="21" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/9 ML Sklearn/1_linearRegression.xlsx
+++ b/9 ML Sklearn/1_linearRegression.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
   <si>
     <t>mesinMobil x</t>
   </si>
@@ -320,6 +320,9 @@
   </si>
   <si>
     <t>1 - (MSE Model / MSE Baseline)</t>
+  </si>
+  <si>
+    <t>R2 score = correlation ^ 2</t>
   </si>
 </sst>
 </file>
@@ -539,7 +542,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -860,7 +862,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3513,10 +3514,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4168,6 +4169,17 @@
         <v>97</v>
       </c>
     </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <f>SQRT(C54)</f>
+        <v>0.98644005041562111</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/9 ML Sklearn/1_linearRegression.xlsx
+++ b/9 ML Sklearn/1_linearRegression.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="simple_linreg" sheetId="1" r:id="rId1"/>
     <sheet name="metrics" sheetId="2" r:id="rId2"/>
     <sheet name="metrics_OK" sheetId="3" r:id="rId3"/>
+    <sheet name="standardisasi" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="103">
   <si>
     <t>mesinMobil x</t>
   </si>
@@ -323,6 +324,18 @@
   </si>
   <si>
     <t>R2 score = correlation ^ 2</t>
+  </si>
+  <si>
+    <t>z x</t>
+  </si>
+  <si>
+    <t>z y</t>
+  </si>
+  <si>
+    <t>y Predict</t>
+  </si>
+  <si>
+    <t>z y Predict</t>
   </si>
 </sst>
 </file>
@@ -2592,8 +2605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3516,7 +3529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
@@ -4184,4 +4197,219 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <f>STANDARDIZE(A2, AVERAGE($A$2:$A$6), STDEV($A$2:$A$6))</f>
+        <v>-1.2649110640673518</v>
+      </c>
+      <c r="D2">
+        <f>STANDARDIZE(B2, AVERAGE($B$2:$B$6), STDEV($B$2:$B$6))</f>
+        <v>-1.1376625572972392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="2">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C6" si="0">STANDARDIZE(A3, AVERAGE($A$2:$A$6), STDEV($A$2:$A$6))</f>
+        <v>-0.63245553203367588</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D6" si="1">STANDARDIZE(B3, AVERAGE($B$2:$B$6), STDEV($B$2:$B$6))</f>
+        <v>-0.58718067473405899</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3000</v>
+      </c>
+      <c r="B4" s="2">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>-0.22019275302527211</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4000</v>
+      </c>
+      <c r="B5" s="2">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>0.63245553203367588</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.51378309039230163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5000</v>
+      </c>
+      <c r="B6" s="2">
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1.2649110640673518</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>1.4312528946642686</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>SLOPE(B2:B6, A2:A6)</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C8">
+        <f>SLOPE(D2:D6, C2:C6)</f>
+        <v>0.98644005041562099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>INTERCEPT(B2:B6, A2:A6)</f>
+        <v>-10.000000000000007</v>
+      </c>
+      <c r="C9">
+        <f>INTERCEPT(D2:D6, C2:C6)</f>
+        <v>-4.380673825535291E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>$A$8 * A2 + $A$9</f>
+        <v>6.9999999999999929</v>
+      </c>
+      <c r="C12">
+        <f xml:space="preserve"> $C$8 * C2 + $C$9</f>
+        <v>-1.2477589338098753</v>
+      </c>
+      <c r="D12">
+        <f xml:space="preserve"> C12 * STDEV($B$2:$B$6) + AVERAGE($B$2:$B$6)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" ref="A13:A16" si="2">$A$8 * A3 + $A$9</f>
+        <v>23.999999999999993</v>
+      </c>
+      <c r="C13">
+        <f t="shared" ref="C13:C16" si="3" xml:space="preserve"> $C$8 * C3 + $C$9</f>
+        <v>-0.62387946690493767</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:D16" si="4" xml:space="preserve"> C13 * STDEV($B$2:$B$6) + AVERAGE($B$2:$B$6)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="3"/>
+        <v>-4.380673825535291E-17</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="2"/>
+        <v>57.999999999999993</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="3"/>
+        <v>0.62387946690493767</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="3"/>
+        <v>1.2477589338098753</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="4"/>
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/9 ML Sklearn/1_linearRegression.xlsx
+++ b/9 ML Sklearn/1_linearRegression.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zzz coding\Python_DataScience_Basic\9 ML Sklearn\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\Python_Fundamental_DataScience\9 ML Sklearn\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B5BA03-D03B-4F78-9AA6-85E9770BD601}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" activeTab="3"/>
+    <workbookView xWindow="-270" yWindow="645" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simple_linreg" sheetId="1" r:id="rId1"/>
@@ -17,10 +18,15 @@
     <sheet name="metrics_OK" sheetId="3" r:id="rId3"/>
     <sheet name="standardisasi" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -341,7 +347,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1514,7 +1520,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1558,7 +1570,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1588,7 +1606,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1636,7 +1660,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1679,7 +1709,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1722,7 +1758,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1765,7 +1807,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1808,7 +1856,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1845,7 +1899,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1889,7 +1949,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1938,7 +2004,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1982,7 +2054,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2025,7 +2103,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2073,7 +2157,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2121,7 +2211,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2169,7 +2265,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2211,7 +2313,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2259,7 +2367,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8"/>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2308,7 +2422,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9"/>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2602,23 +2722,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:B6"/>
+    <sheetView tabSelected="1" topLeftCell="D11" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.77734375" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2638,7 +2758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1000</v>
       </c>
@@ -2662,7 +2782,7 @@
         <v>6.9999999999999929</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2000</v>
       </c>
@@ -2689,7 +2809,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3000</v>
       </c>
@@ -2720,7 +2840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4000</v>
       </c>
@@ -2751,7 +2871,7 @@
         <v>7.0169999999999995</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5000</v>
       </c>
@@ -2778,7 +2898,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>SUM(A2:A6)</f>
         <v>15000</v>
@@ -2803,7 +2923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
@@ -2819,7 +2939,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G10" s="10">
         <f>SLOPE(B2:B6, A2:A6)</f>
         <v>1.7000000000000001E-2</v>
@@ -2828,7 +2948,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
@@ -2840,7 +2960,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="G12" s="10">
         <f>INTERCEPT(B2:B6, A2:A6)</f>
         <v>-10.000000000000007</v>
@@ -2849,23 +2969,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I13" s="10"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I14" s="10"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I15" s="10"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B16" s="9"/>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:9" x14ac:dyDescent="0.25">
       <c r="E17" s="7" t="s">
         <v>14</v>
       </c>
@@ -2877,7 +2997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="5:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:9" x14ac:dyDescent="0.25">
       <c r="G18" s="10">
         <f>CORREL(A2:A6, B2:B6)</f>
         <v>0.98644005041562099</v>
@@ -2894,31 +3014,31 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView topLeftCell="K19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="W30" sqref="W30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="6" max="6" width="3" customWidth="1"/>
-    <col min="7" max="7" width="10.44140625" customWidth="1"/>
-    <col min="8" max="8" width="7.88671875" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="25.5546875" customWidth="1"/>
-    <col min="14" max="14" width="16.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.6640625" customWidth="1"/>
-    <col min="16" max="16" width="4.6640625" customWidth="1"/>
-    <col min="18" max="18" width="11.77734375" customWidth="1"/>
-    <col min="21" max="21" width="2.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="10" max="12" width="12.7109375" customWidth="1"/>
+    <col min="13" max="13" width="25.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="4.7109375" customWidth="1"/>
+    <col min="18" max="18" width="11.7109375" customWidth="1"/>
+    <col min="21" max="21" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2966,7 +3086,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1000</v>
       </c>
@@ -3031,7 +3151,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2000</v>
       </c>
@@ -3083,7 +3203,7 @@
         <v>1.6000000000000228E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3000</v>
       </c>
@@ -3135,7 +3255,7 @@
         <v>2.9387755102040818E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4000</v>
       </c>
@@ -3187,7 +3307,7 @@
         <v>2.9752066115702339E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5000</v>
       </c>
@@ -3239,7 +3359,7 @@
         <v>3.90625E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f>SUM(A2:A6)</f>
         <v>15000</v>
@@ -3285,7 +3405,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I8" s="11" t="s">
         <v>36</v>
       </c>
@@ -3298,7 +3418,7 @@
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -3327,7 +3447,7 @@
       <c r="N9" s="15"/>
       <c r="O9" s="15"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G10" s="10">
         <f>SLOPE(B2:B6, A2:A6)</f>
         <v>1.7000000000000001E-2</v>
@@ -3346,7 +3466,7 @@
       <c r="N10" s="15"/>
       <c r="O10" s="15"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D11" s="7" t="s">
         <v>6</v>
       </c>
@@ -3381,7 +3501,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="G12" s="10">
         <f>INTERCEPT(B2:B6, A2:A6)</f>
         <v>-10.000000000000007</v>
@@ -3400,7 +3520,7 @@
       <c r="N12" s="15"/>
       <c r="O12" s="15"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="I13" s="11">
         <f t="shared" si="11"/>
         <v>39</v>
@@ -3418,7 +3538,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="Q15" s="8" t="s">
         <v>40</v>
       </c>
@@ -3430,10 +3550,10 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="W16" s="13"/>
     </row>
-    <row r="19" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q19" s="8" t="s">
         <v>43</v>
       </c>
@@ -3445,7 +3565,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q24" s="8" t="s">
         <v>47</v>
       </c>
@@ -3454,7 +3574,7 @@
         <v>0.16339922468092638</v>
       </c>
     </row>
-    <row r="26" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q26" s="8" t="s">
         <v>49</v>
       </c>
@@ -3466,17 +3586,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="17:20" x14ac:dyDescent="0.25">
       <c r="T28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="17:20" x14ac:dyDescent="0.25">
       <c r="T29" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="17:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="17:20" x14ac:dyDescent="0.25">
       <c r="Q32" s="8" t="s">
         <v>52</v>
       </c>
@@ -3488,22 +3608,22 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q33" s="16"/>
       <c r="R33" s="17"/>
     </row>
-    <row r="34" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q34" s="16"/>
       <c r="R34" s="17"/>
       <c r="T34" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="17:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q35" s="16"/>
       <c r="R35" s="17"/>
     </row>
-    <row r="37" spans="17:22" ht="15" x14ac:dyDescent="0.35">
+    <row r="37" spans="17:22" x14ac:dyDescent="0.25">
       <c r="Q37" s="8" t="s">
         <v>34</v>
       </c>
@@ -3526,25 +3646,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O58"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="11.88671875" customWidth="1"/>
-    <col min="9" max="9" width="14.109375" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
-    <col min="12" max="12" width="10.109375" customWidth="1"/>
-    <col min="13" max="13" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.85546875" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>57</v>
       </c>
@@ -3591,7 +3711,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
         <v>1000</v>
       </c>
@@ -3651,7 +3771,7 @@
         <v>9.0000000000000427E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
         <v>2000</v>
       </c>
@@ -3711,7 +3831,7 @@
         <v>1.6000000000000228E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
         <v>3000</v>
       </c>
@@ -3771,7 +3891,7 @@
         <v>2.9387755102040818E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>4000</v>
       </c>
@@ -3831,7 +3951,7 @@
         <v>2.9752066115702339E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>5000</v>
       </c>
@@ -3891,7 +4011,7 @@
         <v>3.90625E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
         <f>SUM(A2:A6)</f>
         <v>15000</v>
@@ -3915,7 +4035,7 @@
       <c r="G7" s="15"/>
       <c r="J7" s="15"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="15"/>
       <c r="C8" s="15"/>
@@ -3924,12 +4044,12 @@
       <c r="G8" s="15"/>
       <c r="J8" s="15"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>SLOPE(B2:B6, A2:A6)</f>
         <v>1.7000000000000001E-2</v>
@@ -3938,12 +4058,12 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
         <f>INTERCEPT(B2:B6, A2:A6)</f>
         <v>-10.000000000000007</v>
@@ -3952,12 +4072,12 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <f>CORREL(A2:A6, B2:B6)</f>
         <v>0.98644005041562099</v>
@@ -3966,7 +4086,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <f>(5*C7-A7*B7)/SQRT(ABS(5*D7-A7^2) * ABS(5 * E7 - B7 ^ 2))</f>
         <v>0.98644005041562111</v>
@@ -3975,15 +4095,15 @@
         <v>73</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="4.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="4.9000000000000004" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="21" t="s">
         <v>75</v>
       </c>
@@ -3995,8 +4115,8 @@
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="5.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="5.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="21" t="s">
         <v>24</v>
       </c>
@@ -4008,13 +4128,13 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="17.45" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="21" t="s">
         <v>25</v>
       </c>
@@ -4026,13 +4146,13 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="21" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="8.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="8.4499999999999993" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="21" t="s">
         <v>28</v>
       </c>
@@ -4044,13 +4164,13 @@
         <v>81</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="21" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="7.2" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="7.15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="21" t="s">
         <v>40</v>
       </c>
@@ -4062,13 +4182,13 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="21" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
         <v>43</v>
       </c>
@@ -4080,12 +4200,12 @@
         <v>85</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
         <v>47</v>
       </c>
@@ -4097,15 +4217,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="15"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
         <v>49</v>
       </c>
@@ -4117,7 +4237,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
         <v>90</v>
       </c>
@@ -4125,16 +4245,16 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="15"/>
       <c r="G47" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="15"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="21" t="s">
         <v>52</v>
       </c>
@@ -4146,21 +4266,21 @@
         <v>93</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="21" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="15"/>
       <c r="G51" s="18">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="15"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
         <v>34</v>
       </c>
@@ -4172,22 +4292,22 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <f>SQRT(C54)</f>
         <v>0.98644005041562111</v>
@@ -4200,21 +4320,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4228,7 +4348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1000</v>
       </c>
@@ -4244,7 +4364,7 @@
         <v>-1.1376625572972392</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2000</v>
       </c>
@@ -4260,7 +4380,7 @@
         <v>-0.58718067473405899</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3000</v>
       </c>
@@ -4276,7 +4396,7 @@
         <v>-0.22019275302527211</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4000</v>
       </c>
@@ -4292,7 +4412,7 @@
         <v>0.51378309039230163</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5000</v>
       </c>
@@ -4308,7 +4428,7 @@
         <v>1.4312528946642686</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>SLOPE(B2:B6, A2:A6)</f>
         <v>1.7000000000000001E-2</v>
@@ -4318,7 +4438,7 @@
         <v>0.98644005041562099</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>INTERCEPT(B2:B6, A2:A6)</f>
         <v>-10.000000000000007</v>
@@ -4328,7 +4448,7 @@
         <v>-4.380673825535291E-17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>101</v>
       </c>
@@ -4339,7 +4459,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>$A$8 * A2 + $A$9</f>
         <v>6.9999999999999929</v>
@@ -4353,7 +4473,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" ref="A13:A16" si="2">$A$8 * A3 + $A$9</f>
         <v>23.999999999999993</v>
@@ -4367,7 +4487,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="2"/>
         <v>41</v>
@@ -4381,7 +4501,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="2"/>
         <v>57.999999999999993</v>
@@ -4395,7 +4515,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="2"/>
         <v>75</v>
